--- a/fh/lab1/main.xlsx
+++ b/fh/lab1/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\4sem\fh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\4sem\fh\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84F568-6376-44CA-9E10-F10747A8953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58271D9F-B401-4B8F-A7CB-EFDAFCCF9E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость теплового эффета реакции</a:t>
+              <a:t>Зависимость теплового эффекта реакции</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
@@ -1519,16 +1519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66146</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40251</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>132291</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>255195</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="62" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
